--- a/RUDN/Importance/Varible_muatal_reg_in_Melanesia.xlsx
+++ b/RUDN/Importance/Varible_muatal_reg_in_Melanesia.xlsx
@@ -19,12 +19,12 @@
     <t>Survival to age 65, female (% of cohort)</t>
   </si>
   <si>
+    <t>Survival to age 65, male (% of cohort)</t>
+  </si>
+  <si>
     <t>Mortality rate, adult, male (per 1,000 male adults)</t>
   </si>
   <si>
-    <t>Survival to age 65, male (% of cohort)</t>
-  </si>
-  <si>
     <t>Mortality rate, adult, female (per 1,000 female adults)</t>
   </si>
   <si>
@@ -61,12 +61,12 @@
     <t>Population ages 00-04, female (% of female population)</t>
   </si>
   <si>
+    <t>Improved sanitation facilities (% of population with access)</t>
+  </si>
+  <si>
     <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
   </si>
   <si>
-    <t>Improved sanitation facilities (% of population with access)</t>
-  </si>
-  <si>
     <t>Urban population (% of total)</t>
   </si>
   <si>
@@ -118,15 +118,15 @@
     <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
   </si>
   <si>
+    <t>Improved water source, rural (% of rural population with access)</t>
+  </si>
+  <si>
     <t>Population ages 80 and older, male (% of male population)</t>
   </si>
   <si>
     <t>Population ages 50-54, female (% of female population)</t>
   </si>
   <si>
-    <t>Improved water source, rural (% of rural population with access)</t>
-  </si>
-  <si>
     <t>Ratio of female to male labor force participation rate (%) (modeled ILO estimate)</t>
   </si>
   <si>
@@ -184,12 +184,12 @@
     <t>Population ages 75-79, female (% of female population)</t>
   </si>
   <si>
+    <t>Labor force participation rate for ages 15-24, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
     <t>Improved sanitation facilities, rural (% of rural population with access)</t>
   </si>
   <si>
-    <t>Labor force participation rate for ages 15-24, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
     <t>Population ages 80 and older, female (% of female population)</t>
   </si>
   <si>
@@ -271,24 +271,24 @@
     <t>Number of infant deaths</t>
   </si>
   <si>
+    <t>Number of maternal deaths</t>
+  </si>
+  <si>
     <t>Population ages 15-19, male (% of male population)</t>
   </si>
   <si>
     <t>Employment to population ratio, 15+, total (%) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>Number of maternal deaths</t>
-  </si>
-  <si>
     <t>Population growth (annual %)</t>
   </si>
   <si>
+    <t>Improved water source, urban (% of urban population with access)</t>
+  </si>
+  <si>
     <t>Forest area (% of land area)</t>
   </si>
   <si>
-    <t>Improved water source, urban (% of urban population with access)</t>
-  </si>
-  <si>
     <t>Age dependency ratio, old</t>
   </si>
   <si>
@@ -460,12 +460,12 @@
     <t>Female population 00-04</t>
   </si>
   <si>
+    <t>Male population 80+</t>
+  </si>
+  <si>
     <t>Age population, age 02, male, interpolated</t>
   </si>
   <si>
-    <t>Male population 80+</t>
-  </si>
-  <si>
     <t>Age population, age 15, male, interpolated</t>
   </si>
   <si>
@@ -475,12 +475,12 @@
     <t>GDP (current US$)</t>
   </si>
   <si>
+    <t>Tuberculosis case detection rate (all forms)</t>
+  </si>
+  <si>
     <t>Incidence of tuberculosis (per 100,000 people)</t>
   </si>
   <si>
-    <t>Tuberculosis case detection rate (all forms)</t>
-  </si>
-  <si>
     <t>People practicing open defecation (% of population)</t>
   </si>
   <si>
@@ -490,24 +490,24 @@
     <t>Age population, age 01, male, interpolated</t>
   </si>
   <si>
+    <t>Tuberculosis case detection rate (%, all forms)</t>
+  </si>
+  <si>
     <t>Age population, age 01, female, interpolated</t>
   </si>
   <si>
     <t>Age population, age 0, male, interpolated</t>
   </si>
   <si>
-    <t>Tuberculosis case detection rate (%, all forms)</t>
-  </si>
-  <si>
     <t>Age population, age 15, female, interpolated</t>
   </si>
   <si>
+    <t>Mortality rate, under-5 (per 1,000)</t>
+  </si>
+  <si>
     <t>Mortality rate, under-5 (per 1,000 live births)</t>
   </si>
   <si>
-    <t>Mortality rate, under-5 (per 1,000)</t>
-  </si>
-  <si>
     <t>Age population, age 16, male, interpolated</t>
   </si>
   <si>
@@ -655,51 +655,51 @@
     <t>PPP conversion factor, GDP (LCU per international $)</t>
   </si>
   <si>
+    <t>Adults (ages 15+) and children (0-14 years) living with HIV</t>
+  </si>
+  <si>
+    <t>Population ages 25-29, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Tuberculosis death rate (per 100,000 people), including HIV</t>
+  </si>
+  <si>
     <t>Tuberculosis death rate (per 100,000 people)</t>
   </si>
   <si>
-    <t>Population ages 25-29, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) and children (0-14 years) living with HIV</t>
-  </si>
-  <si>
-    <t>Tuberculosis death rate (per 100,000 people), including HIV</t>
+    <t>Adults (ages 15+) living with HIV</t>
+  </si>
+  <si>
+    <t>Mortality rate, infant (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>Male population 30-34</t>
+  </si>
+  <si>
+    <t>Newborns protected against tetanus (%)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, female (% gross)</t>
+  </si>
+  <si>
+    <t>Mobile cellular subscriptions (per 100 people)</t>
   </si>
   <si>
     <t>People using basic sanitation services, rural (% of rural population)</t>
   </si>
   <si>
-    <t>Mortality rate, infant (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) living with HIV</t>
-  </si>
-  <si>
-    <t>Male population 30-34</t>
-  </si>
-  <si>
-    <t>Newborns protected against tetanus (%)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, female (% gross)</t>
-  </si>
-  <si>
-    <t>Mobile cellular subscriptions (per 100 people)</t>
-  </si>
-  <si>
     <t>Primary completion rate, total (% of relevant age group)</t>
   </si>
   <si>
     <t>School enrollment, primary (% gross)</t>
   </si>
   <si>
+    <t>Population ages 25-29, female (% of female population)</t>
+  </si>
+  <si>
     <t>People using basic sanitation services, urban  (% of urban population)</t>
   </si>
   <si>
-    <t>Population ages 25-29, female (% of female population)</t>
-  </si>
-  <si>
     <t>Female population 45-49</t>
   </si>
   <si>
@@ -712,6 +712,9 @@
     <t>Male population 45-49</t>
   </si>
   <si>
+    <t>Reported cases of malaria</t>
+  </si>
+  <si>
     <t>Population ages 15-64, female</t>
   </si>
   <si>
@@ -736,18 +739,15 @@
     <t>Male population 40-44</t>
   </si>
   <si>
-    <t>Reported cases of malaria</t>
+    <t>Malaria cases reported</t>
+  </si>
+  <si>
+    <t>Children (0-14) living with HIV</t>
   </si>
   <si>
     <t>Immunization, HepB3 (% of one-year-old children)</t>
   </si>
   <si>
-    <t>Malaria cases reported</t>
-  </si>
-  <si>
-    <t>Children (0-14) living with HIV</t>
-  </si>
-  <si>
     <t>Mortality rate, neonatal (per 1,000 live births)</t>
   </si>
   <si>
@@ -778,6 +778,9 @@
     <t>Health expenditure, public (% of government expenditure)</t>
   </si>
   <si>
+    <t>Immunization, BCG (% of one-year-old children)</t>
+  </si>
+  <si>
     <t>Proportion of seats held by women in national parliaments (%)</t>
   </si>
   <si>
@@ -805,9 +808,6 @@
     <t>People practicing open defecation, urban (% of urban population)</t>
   </si>
   <si>
-    <t>Immunization, BCG (% of one-year-old children)</t>
-  </si>
-  <si>
     <t>Health expenditure, public (% of GDP)</t>
   </si>
   <si>
@@ -844,12 +844,12 @@
     <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
   </si>
   <si>
+    <t>Adults (ages 15+) and children (ages 0-14) newly infected with HIV</t>
+  </si>
+  <si>
     <t>Adults (ages 15+) newly infected with HIV</t>
   </si>
   <si>
-    <t>Adults (ages 15+) and children (ages 0-14) newly infected with HIV</t>
-  </si>
-  <si>
     <t>Time required to start a business, female (days)</t>
   </si>
   <si>
@@ -883,24 +883,24 @@
     <t>Forest area (sq. km)</t>
   </si>
   <si>
+    <t>Immunization, measles (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>People practicing open defecation, rural (% of rural population)</t>
+  </si>
+  <si>
     <t>Tuberculosis treatment success rate (% of new cases)</t>
   </si>
   <si>
-    <t>Immunization, measles (% of children ages 12-23 months)</t>
-  </si>
-  <si>
-    <t>People practicing open defecation, rural (% of rural population)</t>
+    <t>Vitamin A supplementation coverage rate (% of children ages 6-59 months)</t>
+  </si>
+  <si>
+    <t>Incidence of HIV (% of uninfected population ages 15-49)</t>
   </si>
   <si>
     <t>Children out of school, primary, male</t>
   </si>
   <si>
-    <t>Vitamin A supplementation coverage rate (% of children ages 6-59 months)</t>
-  </si>
-  <si>
-    <t>Incidence of HIV (% of uninfected population ages 15-49)</t>
-  </si>
-  <si>
     <t>School enrollment, primary (gross), gender parity index (GPI)</t>
   </si>
   <si>
@@ -934,6 +934,9 @@
     <t>Adjusted net enrollment rate, primary, male (% of primary school age children)</t>
   </si>
   <si>
+    <t>School enrollment, secondary, male (% gross)</t>
+  </si>
+  <si>
     <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
   </si>
   <si>
@@ -941,9 +944,6 @@
   </si>
   <si>
     <t>Secondary education, pupils (% female)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, male (% gross)</t>
   </si>
   <si>
     <t>Primary completion rate, female (% of relevant age group)</t>
@@ -1407,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.360722405537271</v>
+        <v>2.355594200409066</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1415,7 +1415,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.018476147521782</v>
+        <v>2.014541684548857</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1423,7 +1423,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.014541684548857</v>
+        <v>2.013347942393577</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1431,7 +1431,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.996949511764377</v>
+        <v>2.002077716892582</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1439,7 +1439,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.516261896212508</v>
+        <v>1.518184973135585</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1447,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.484188520869902</v>
+        <v>1.480983392664774</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1527,7 +1527,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.342852177121566</v>
+        <v>1.34567661329929</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1535,7 +1535,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.342438322148763</v>
+        <v>1.3411855104549</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1679,7 +1679,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>1.205114835233731</v>
+        <v>1.207309175386722</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1687,7 +1687,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>1.201957854877155</v>
+        <v>1.205114835233731</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1695,7 +1695,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>1.194910847219163</v>
+        <v>1.201957854877155</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1735,7 +1735,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>1.180504596557793</v>
+        <v>1.181145622198819</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1783,7 +1783,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>1.148644551220939</v>
+        <v>1.152486591533567</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1855,7 +1855,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>1.121434016295078</v>
+        <v>1.11803866168564</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1863,7 +1863,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>1.11803866168564</v>
+        <v>1.116846104207166</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1943,7 +1943,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>1.083378424490389</v>
+        <v>1.084916886028851</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -2055,7 +2055,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>1.021948657406554</v>
+        <v>1.022564042021938</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -2079,7 +2079,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>1.012900797525651</v>
+        <v>1.014023017480762</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -2087,7 +2087,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>1.010701225876572</v>
+        <v>1.012679971024379</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -2095,7 +2095,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>1.009593277576911</v>
+        <v>1.010701225876572</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -2103,7 +2103,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>1.009416037703623</v>
+        <v>1.009593277576911</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -2119,7 +2119,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.9910872462975679</v>
+        <v>0.9922675208041052</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -2127,7 +2127,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.9904552732226271</v>
+        <v>0.9910872462975679</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -2159,7 +2159,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.963960339313195</v>
+        <v>0.9647295700824259</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -2191,7 +2191,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.9306382540174776</v>
+        <v>0.925510048889272</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -2519,7 +2519,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>0.8089756275637212</v>
+        <v>0.8067778253659186</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2591,7 +2591,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>0.7881050841333475</v>
+        <v>0.7881096697979137</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2599,7 +2599,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>0.7877048114983183</v>
+        <v>0.7881050841333475</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2631,7 +2631,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>0.7808999131094607</v>
+        <v>0.7810273718544156</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2639,7 +2639,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>0.7800017308287748</v>
+        <v>0.7788115037812324</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -2671,7 +2671,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>0.7742256476984113</v>
+        <v>0.7745792488550594</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -2679,7 +2679,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>0.773848051051008</v>
+        <v>0.7742256476984113</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -2687,7 +2687,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>0.773588237603867</v>
+        <v>0.773848051051008</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -2711,7 +2711,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>0.7613350489029713</v>
+        <v>0.7622400262785365</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -2975,7 +2975,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>0.6964401444174553</v>
+        <v>0.695056383812259</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -3111,7 +3111,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>0.6727387868308365</v>
+        <v>0.6740585437794178</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -3127,7 +3127,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>0.6684769616188879</v>
+        <v>0.6705943136569517</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -3135,7 +3135,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>0.6654817761817136</v>
+        <v>0.6660076194474953</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -3143,7 +3143,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>0.6560759766991435</v>
+        <v>0.6653106292578574</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -3151,7 +3151,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>0.653685343650134</v>
+        <v>0.6589643783409334</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -3159,7 +3159,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>0.652508705631462</v>
+        <v>0.6516821735391636</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -3167,7 +3167,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>0.6516821735391636</v>
+        <v>0.6455308589210484</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -3175,7 +3175,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>0.645884751833826</v>
+        <v>0.6414113399915771</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -3183,7 +3183,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>0.6414113399915771</v>
+        <v>0.6382749059968491</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -3191,7 +3191,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>0.6382749059968491</v>
+        <v>0.6351868642569831</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -3199,7 +3199,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>0.622896444253215</v>
+        <v>0.623595744952516</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -3215,7 +3215,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>0.6177253552402684</v>
+        <v>0.6168852009486958</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -3223,7 +3223,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>0.6168852009486958</v>
+        <v>0.6165419232876057</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -3263,7 +3263,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>0.6038561538732337</v>
+        <v>0.6049805305048697</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -3271,7 +3271,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>0.6036376122728464</v>
+        <v>0.6038561538732337</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -3279,7 +3279,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>0.6019511288216566</v>
+        <v>0.6036376122728464</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -3287,7 +3287,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>0.5977600359084061</v>
+        <v>0.6019511288216566</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -3295,7 +3295,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>0.5946434877349884</v>
+        <v>0.5977600359084061</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -3303,7 +3303,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>0.5944405810222744</v>
+        <v>0.5946434877349884</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -3311,7 +3311,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>0.592353846164078</v>
+        <v>0.5944405810222744</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -3319,7 +3319,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>0.5877962025566599</v>
+        <v>0.5923313540363231</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -3327,7 +3327,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>0.5874517131683601</v>
+        <v>0.5877962025566599</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -3335,7 +3335,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>0.5780657087066035</v>
+        <v>0.581369467300104</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -3343,7 +3343,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>0.5772536171168516</v>
+        <v>0.5793962983191339</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -3351,7 +3351,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>0.5742680931909288</v>
+        <v>0.579280844739553</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -3375,7 +3375,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>0.5541659267349208</v>
+        <v>0.5536672649160044</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -3383,7 +3383,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>0.5447857775954095</v>
+        <v>0.5509396237492554</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -3399,7 +3399,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>0.5384519167733721</v>
+        <v>0.5394779056172641</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -3439,7 +3439,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>0.5137593476498248</v>
+        <v>0.514201828413121</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -3447,7 +3447,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>0.5132970626284492</v>
+        <v>0.5137593476498248</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -3455,7 +3455,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>0.5131160919572073</v>
+        <v>0.5132970626284492</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -3463,7 +3463,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>0.5126278500443426</v>
+        <v>0.5126765315176467</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -3471,7 +3471,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>0.5120580451782328</v>
+        <v>0.5126278500443426</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -3479,7 +3479,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>0.5112329136896859</v>
+        <v>0.5120580451782328</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -3487,7 +3487,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>0.5104829894058247</v>
+        <v>0.5112329136896859</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -3495,7 +3495,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>0.509109233448359</v>
+        <v>0.5104829894058247</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -3503,7 +3503,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>0.5087935833382353</v>
+        <v>0.509109233448359</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -3511,7 +3511,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>0.5086746857069312</v>
+        <v>0.5087935833382353</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -3615,7 +3615,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>0.4999827631363685</v>
+        <v>0.4969110058338413</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -3623,7 +3623,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>0.4969110058338413</v>
+        <v>0.4961366092902142</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -3631,7 +3631,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>0.489724212193474</v>
+        <v>0.4897715200538346</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -3639,7 +3639,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>0.4886151572843531</v>
+        <v>0.4897441669205642</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -3647,7 +3647,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>0.4842595504132061</v>
+        <v>0.4843463354230682</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -3671,7 +3671,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>0.4818457362399782</v>
+        <v>0.4811534285476711</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -3703,7 +3703,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>0.4664795671123803</v>
+        <v>0.4661718748046879</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -3711,7 +3711,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>0.4552736713718089</v>
+        <v>0.4613823261026195</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -3719,7 +3719,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>0.4470543371452886</v>
+        <v>0.4394464922150114</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -3727,7 +3727,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>0.441571787708084</v>
+        <v>0.4322114311049421</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -3735,7 +3735,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>0.4296191515895855</v>
+        <v>0.4316110076125224</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -3743,7 +3743,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>0.4262475935729564</v>
+        <v>0.4220752859981216</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -3759,7 +3759,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>0.4220752859981216</v>
+        <v>0.4214612687866317</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -3783,7 +3783,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>0.4168484614292236</v>
+        <v>0.4149253845061467</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -3855,7 +3855,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>0.3658648705764322</v>
+        <v>0.3676483155186254</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -3879,7 +3879,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>0.3654452116049955</v>
+        <v>0.3658648705764322</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -3911,7 +3911,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>0.3425453487730061</v>
+        <v>0.3455748682731137</v>
       </c>
     </row>
     <row r="316" spans="1:2">
